--- a/NGU/decisions.xlsx
+++ b/NGU/decisions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickk\Music\Portfolio\Game-Bots\NGU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4ABD9B-FA51-4E2E-A9E1-41AC43FF6C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C03A380-9A79-48E1-A524-FD38794C08E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{8C51118C-00E0-4845-8951-4D66525E0CA6}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{8C51118C-00E0-4845-8951-4D66525E0CA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,10 +433,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3770000</v>
+        <v>4500000</v>
       </c>
       <c r="D5">
-        <v>1200000</v>
+        <v>1530000</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -500,11 +500,11 @@
       </c>
       <c r="C9">
         <f>((C6/C5)/C7) / ((C3/C2)/C4)</f>
-        <v>0.99469496021220161</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D9">
         <f>((D6/D5)/D7) / ((D3/D2)/D4)</f>
-        <v>0.96875</v>
+        <v>1.0049019607843139</v>
       </c>
     </row>
   </sheetData>

--- a/NGU/decisions.xlsx
+++ b/NGU/decisions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickk\Music\Portfolio\Game-Bots\NGU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C03A380-9A79-48E1-A524-FD38794C08E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51CCBB1-9E35-4E66-BDA3-AA883C4EFD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{8C51118C-00E0-4845-8951-4D66525E0CA6}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
